--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>949890.7016853021</v>
+        <v>869525.6770034365</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6765418.657980116</v>
+        <v>6765418.657980112</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16875224.36884907</v>
+        <v>16875224.36884905</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5470613.635512879</v>
+        <v>5470613.63551288</v>
       </c>
     </row>
     <row r="11">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>73.73075715809455</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70885235932626</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="T23" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2411,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>76.87928562742994</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S24" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>73.73075715809455</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.70885235932626</v>
+        <v>9.727356832651337</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>9.727356832651394</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="W25" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
     </row>
     <row r="26">
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>73.73075715809455</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="F26" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>73.73075715809455</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
     </row>
     <row r="28">
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>73.73075715809452</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="T28" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.73075715809455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>73.73075715809459</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>73.73075715809458</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>76.87928562742994</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>80.56032388999088</v>
       </c>
       <c r="S30" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="V30" t="n">
-        <v>76.87928562742992</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>73.73075715809453</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.00340032544321</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>9.727356832651365</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>73.73075715809459</v>
       </c>
       <c r="D32" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.73075715809458</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Y32" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>73.73075715809459</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>73.73075715809455</v>
+        <v>83.70885235932627</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3231,31 +3231,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.00340032544321</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>9.727356832651365</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>73.73075715809453</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>73.73075715809455</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>73.73075715809459</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="X35" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3398,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>76.87928562742992</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>76.87928562742994</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>73.73075715809459</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="S37" t="n">
-        <v>73.73075715809458</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>73.73075715809455</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>73.73075715809459</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
     </row>
     <row r="39">
@@ -3590,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.56032388999088</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="V39" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>76.87928562742992</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
     </row>
     <row r="40">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>73.73075715809453</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.00340032544321</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="W40" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.727356832651365</v>
+        <v>83.70885235932627</v>
       </c>
     </row>
     <row r="41">
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="E41" t="n">
-        <v>73.73075715809455</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>73.73075715809451</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>73.73075715809451</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>73.73075715809455</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>73.73075715809451</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>73.73075715809455</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="F44" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>73.73075715809458</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>73.73075715809452</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>73.73075715809451</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.56032388999088</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="W45" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="Y45" t="n">
-        <v>76.87928562742992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,19 +4146,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.70885235932626</v>
+        <v>73.73075715809452</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="H46" t="n">
-        <v>82.78933896946536</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>74.65027054795544</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.17222046964969</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C23" t="n">
-        <v>81.17222046964969</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D23" t="n">
-        <v>81.17222046964969</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E23" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="F23" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G23" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H23" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I23" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J23" t="n">
-        <v>44.4360887082459</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K23" t="n">
-        <v>115.9135453040444</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="L23" t="n">
-        <v>115.9135453040444</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="M23" t="n">
-        <v>198.7853091397774</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="N23" t="n">
-        <v>198.7853091397774</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="O23" t="n">
-        <v>198.7853091397774</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="P23" t="n">
-        <v>281.6570729755103</v>
+        <v>293.051380215445</v>
       </c>
       <c r="Q23" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R23" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S23" t="n">
-        <v>250.2810131147533</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="T23" t="n">
-        <v>165.7266167922015</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U23" t="n">
-        <v>165.7266167922015</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V23" t="n">
-        <v>165.7266167922015</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W23" t="n">
-        <v>165.7266167922015</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X23" t="n">
-        <v>165.7266167922015</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.7266167922015</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.696708188746101</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="C24" t="n">
-        <v>6.696708188746101</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="D24" t="n">
-        <v>6.696708188746101</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="E24" t="n">
-        <v>6.696708188746101</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="F24" t="n">
-        <v>6.696708188746101</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="G24" t="n">
-        <v>6.696708188746101</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="H24" t="n">
-        <v>6.696708188746101</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="I24" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J24" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K24" t="n">
-        <v>6.696708188746101</v>
+        <v>89.56847202447911</v>
       </c>
       <c r="L24" t="n">
-        <v>6.696708188746101</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="M24" t="n">
-        <v>89.56847202447909</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N24" t="n">
         <v>172.4402358602121</v>
       </c>
       <c r="O24" t="n">
-        <v>251.963645601572</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="P24" t="n">
-        <v>251.963645601572</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="Q24" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R24" t="n">
-        <v>334.835409437305</v>
+        <v>253.4613449019608</v>
       </c>
       <c r="S24" t="n">
-        <v>250.2810131147533</v>
+        <v>253.4613449019608</v>
       </c>
       <c r="T24" t="n">
-        <v>165.7266167922015</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="U24" t="n">
-        <v>165.7266167922015</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="V24" t="n">
-        <v>81.17222046964969</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="W24" t="n">
-        <v>81.17222046964969</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="X24" t="n">
-        <v>6.696708188746101</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.696708188746101</v>
+        <v>168.9069485794089</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="C25" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="D25" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="E25" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="F25" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G25" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H25" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I25" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J25" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K25" t="n">
-        <v>15.08695199673547</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L25" t="n">
-        <v>81.35001001408396</v>
+        <v>81.35001001408398</v>
       </c>
       <c r="M25" t="n">
-        <v>161.6042370215895</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N25" t="n">
-        <v>244.4760008573225</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O25" t="n">
         <v>305.8446287478054</v>
       </c>
       <c r="P25" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q25" t="n">
         <v>270.1855101186756</v>
@@ -6174,25 +6174,25 @@
         <v>270.1855101186756</v>
       </c>
       <c r="S25" t="n">
-        <v>270.1855101186756</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="T25" t="n">
-        <v>270.1855101186756</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="U25" t="n">
-        <v>260.3598971564014</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="V25" t="n">
-        <v>175.8055008338497</v>
+        <v>101.076717473572</v>
       </c>
       <c r="W25" t="n">
-        <v>91.25110451129788</v>
+        <v>101.076717473572</v>
       </c>
       <c r="X25" t="n">
-        <v>91.25110451129788</v>
+        <v>101.076717473572</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.25110451129788</v>
+        <v>16.52232115102018</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>165.7266167922015</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="C26" t="n">
-        <v>91.25110451129788</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="D26" t="n">
-        <v>91.25110451129788</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="E26" t="n">
-        <v>91.25110451129788</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F26" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="G26" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H26" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I26" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J26" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K26" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="L26" t="n">
-        <v>6.696708188746101</v>
+        <v>89.56847202447911</v>
       </c>
       <c r="M26" t="n">
-        <v>89.56847202447909</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N26" t="n">
-        <v>172.4402358602121</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="O26" t="n">
-        <v>255.3119996959451</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="P26" t="n">
-        <v>334.835409437305</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q26" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R26" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S26" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="T26" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="U26" t="n">
-        <v>250.2810131147533</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="V26" t="n">
-        <v>250.2810131147533</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="W26" t="n">
-        <v>250.2810131147533</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="X26" t="n">
-        <v>165.7266167922015</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Y26" t="n">
-        <v>165.7266167922015</v>
+        <v>334.8354094373051</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.696708188746101</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="C27" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D27" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E27" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F27" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="G27" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="H27" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I27" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J27" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K27" t="n">
-        <v>6.696708188746101</v>
+        <v>89.56847202447911</v>
       </c>
       <c r="L27" t="n">
-        <v>89.56847202447909</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="M27" t="n">
-        <v>169.091881765839</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="N27" t="n">
-        <v>251.963645601572</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="O27" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="P27" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q27" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R27" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S27" t="n">
-        <v>250.2810131147533</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="T27" t="n">
-        <v>165.7266167922015</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="U27" t="n">
-        <v>165.7266167922015</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="V27" t="n">
-        <v>91.25110451129788</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="W27" t="n">
-        <v>91.25110451129788</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="X27" t="n">
-        <v>6.696708188746101</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.696708188746101</v>
+        <v>260.3598971564015</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C28" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="D28" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="E28" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="F28" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G28" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H28" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I28" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J28" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K28" t="n">
         <v>15.08695199673548</v>
@@ -6393,7 +6393,7 @@
         <v>81.35001001408396</v>
       </c>
       <c r="M28" t="n">
-        <v>161.6042370215896</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N28" t="n">
         <v>244.4760008573226</v>
@@ -6408,28 +6408,28 @@
         <v>334.835409437305</v>
       </c>
       <c r="R28" t="n">
-        <v>334.835409437305</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="S28" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="T28" t="n">
-        <v>250.2810131147533</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U28" t="n">
-        <v>250.2810131147533</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V28" t="n">
-        <v>250.2810131147533</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W28" t="n">
-        <v>165.7266167922015</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X28" t="n">
-        <v>81.17222046964969</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C29" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D29" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964973</v>
       </c>
       <c r="E29" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964973</v>
       </c>
       <c r="F29" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964973</v>
       </c>
       <c r="G29" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H29" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I29" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J29" t="n">
         <v>44.43608870824591</v>
       </c>
       <c r="K29" t="n">
-        <v>127.3078525439789</v>
+        <v>86.22011793010604</v>
       </c>
       <c r="L29" t="n">
-        <v>127.3078525439789</v>
+        <v>169.091881765839</v>
       </c>
       <c r="M29" t="n">
-        <v>127.3078525439789</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="N29" t="n">
-        <v>210.1796163797119</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="O29" t="n">
-        <v>293.0513802154449</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="P29" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q29" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R29" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S29" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="T29" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="U29" t="n">
-        <v>260.3598971564014</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="V29" t="n">
-        <v>175.8055008338497</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W29" t="n">
-        <v>175.8055008338497</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X29" t="n">
-        <v>91.25110451129788</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y29" t="n">
-        <v>91.25110451129788</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.696708188746101</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="C30" t="n">
-        <v>6.696708188746101</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="D30" t="n">
-        <v>6.696708188746101</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="E30" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="F30" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G30" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H30" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I30" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J30" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K30" t="n">
-        <v>86.22011793010606</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="L30" t="n">
-        <v>86.22011793010606</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="M30" t="n">
-        <v>86.22011793010606</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="N30" t="n">
+        <v>86.22011793010604</v>
+      </c>
+      <c r="O30" t="n">
         <v>169.091881765839</v>
       </c>
-      <c r="O30" t="n">
-        <v>251.963645601572</v>
-      </c>
       <c r="P30" t="n">
-        <v>334.835409437305</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="Q30" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R30" t="n">
-        <v>253.4613449019607</v>
+        <v>253.4613449019608</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9069485794089</v>
+        <v>253.4613449019608</v>
       </c>
       <c r="T30" t="n">
-        <v>168.9069485794089</v>
+        <v>253.4613449019608</v>
       </c>
       <c r="U30" t="n">
         <v>168.9069485794089</v>
       </c>
       <c r="V30" t="n">
-        <v>91.25110451129788</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="W30" t="n">
-        <v>91.25110451129788</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="X30" t="n">
-        <v>91.25110451129788</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.696708188746101</v>
+        <v>168.9069485794089</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.696708188746101</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="C31" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D31" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964967</v>
       </c>
       <c r="E31" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964967</v>
       </c>
       <c r="F31" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964967</v>
       </c>
       <c r="G31" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964967</v>
       </c>
       <c r="H31" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964967</v>
       </c>
       <c r="I31" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J31" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K31" t="n">
         <v>15.08695199673548</v>
       </c>
       <c r="L31" t="n">
-        <v>81.35001001408399</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M31" t="n">
-        <v>161.6042370215896</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N31" t="n">
         <v>244.4760008573226</v>
@@ -6642,31 +6642,31 @@
         <v>334.835409437305</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.1855101186756</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R31" t="n">
-        <v>185.6311137961238</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S31" t="n">
-        <v>101.076717473572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T31" t="n">
-        <v>101.076717473572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U31" t="n">
-        <v>101.076717473572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V31" t="n">
-        <v>16.52232115102021</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W31" t="n">
-        <v>16.52232115102021</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X31" t="n">
-        <v>6.696708188746101</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.696708188746101</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>91.25110451129788</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C32" t="n">
-        <v>91.25110451129788</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="D32" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="E32" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="F32" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="G32" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H32" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I32" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J32" t="n">
-        <v>44.43608870824591</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K32" t="n">
-        <v>115.9135453040443</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="L32" t="n">
-        <v>198.7853091397773</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="M32" t="n">
-        <v>198.7853091397773</v>
+        <v>89.56847202447911</v>
       </c>
       <c r="N32" t="n">
-        <v>281.6570729755103</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O32" t="n">
-        <v>281.6570729755103</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="P32" t="n">
-        <v>281.6570729755103</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q32" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R32" t="n">
-        <v>260.3598971564014</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S32" t="n">
-        <v>260.3598971564014</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="T32" t="n">
-        <v>175.8055008338497</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U32" t="n">
-        <v>175.8055008338497</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V32" t="n">
-        <v>175.8055008338497</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W32" t="n">
-        <v>175.8055008338497</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X32" t="n">
-        <v>175.8055008338497</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y32" t="n">
-        <v>91.25110451129788</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.696708188746101</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="C33" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D33" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964973</v>
       </c>
       <c r="E33" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964973</v>
       </c>
       <c r="F33" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G33" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H33" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I33" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J33" t="n">
         <v>35.48064500251785</v>
       </c>
       <c r="K33" t="n">
-        <v>86.22011793010606</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="L33" t="n">
-        <v>86.22011793010606</v>
+        <v>86.22011793010604</v>
       </c>
       <c r="M33" t="n">
-        <v>86.22011793010606</v>
+        <v>86.22011793010604</v>
       </c>
       <c r="N33" t="n">
-        <v>169.091881765839</v>
+        <v>86.22011793010604</v>
       </c>
       <c r="O33" t="n">
         <v>169.091881765839</v>
       </c>
       <c r="P33" t="n">
-        <v>251.963645601572</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="Q33" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R33" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S33" t="n">
+        <v>334.8354094373051</v>
+      </c>
+      <c r="T33" t="n">
+        <v>334.8354094373051</v>
+      </c>
+      <c r="U33" t="n">
+        <v>334.8354094373051</v>
+      </c>
+      <c r="V33" t="n">
+        <v>334.8354094373051</v>
+      </c>
+      <c r="W33" t="n">
+        <v>334.8354094373051</v>
+      </c>
+      <c r="X33" t="n">
+        <v>334.8354094373051</v>
+      </c>
+      <c r="Y33" t="n">
         <v>250.2810131147533</v>
-      </c>
-      <c r="T33" t="n">
-        <v>165.7266167922015</v>
-      </c>
-      <c r="U33" t="n">
-        <v>165.7266167922015</v>
-      </c>
-      <c r="V33" t="n">
-        <v>81.17222046964969</v>
-      </c>
-      <c r="W33" t="n">
-        <v>81.17222046964969</v>
-      </c>
-      <c r="X33" t="n">
-        <v>81.17222046964969</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="34">
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="C34" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="D34" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="E34" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="F34" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G34" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H34" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I34" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J34" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K34" t="n">
-        <v>15.08695199673551</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L34" t="n">
-        <v>81.35001001408399</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M34" t="n">
-        <v>161.6042370215896</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N34" t="n">
         <v>244.4760008573226</v>
@@ -6879,31 +6879,31 @@
         <v>334.835409437305</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.1855101186756</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R34" t="n">
-        <v>270.1855101186756</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S34" t="n">
-        <v>185.6311137961238</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T34" t="n">
-        <v>185.6311137961238</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U34" t="n">
-        <v>101.076717473572</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V34" t="n">
-        <v>101.076717473572</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W34" t="n">
-        <v>16.52232115102021</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X34" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81.17222046964969</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="C35" t="n">
-        <v>81.17222046964969</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="D35" t="n">
-        <v>81.17222046964969</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="E35" t="n">
-        <v>81.17222046964969</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="F35" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G35" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H35" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I35" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J35" t="n">
         <v>44.43608870824591</v>
@@ -6949,40 +6949,40 @@
         <v>127.3078525439789</v>
       </c>
       <c r="N35" t="n">
-        <v>210.1796163797119</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="O35" t="n">
-        <v>293.0513802154449</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="P35" t="n">
-        <v>293.0513802154449</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q35" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R35" t="n">
         <v>250.2810131147533</v>
       </c>
       <c r="S35" t="n">
-        <v>250.2810131147533</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="T35" t="n">
-        <v>250.2810131147533</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="U35" t="n">
-        <v>250.2810131147533</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="V35" t="n">
-        <v>250.2810131147533</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="W35" t="n">
-        <v>165.7266167922015</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="X35" t="n">
-        <v>81.17222046964969</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="Y35" t="n">
-        <v>81.17222046964969</v>
+        <v>6.696708188746102</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="C36" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="D36" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="E36" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="F36" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G36" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H36" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I36" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J36" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K36" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="L36" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="M36" t="n">
-        <v>86.22011793010606</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="N36" t="n">
-        <v>86.22011793010606</v>
+        <v>86.22011793010604</v>
       </c>
       <c r="O36" t="n">
         <v>169.091881765839</v>
       </c>
       <c r="P36" t="n">
-        <v>251.963645601572</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="Q36" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R36" t="n">
-        <v>253.4613449019607</v>
+        <v>253.4613449019608</v>
       </c>
       <c r="S36" t="n">
-        <v>253.4613449019607</v>
+        <v>253.4613449019608</v>
       </c>
       <c r="T36" t="n">
-        <v>175.8055008338497</v>
+        <v>253.4613449019608</v>
       </c>
       <c r="U36" t="n">
-        <v>91.25110451129788</v>
+        <v>253.4613449019608</v>
       </c>
       <c r="V36" t="n">
-        <v>6.696708188746101</v>
+        <v>253.4613449019608</v>
       </c>
       <c r="W36" t="n">
-        <v>6.696708188746101</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="X36" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="Y36" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C37" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D37" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E37" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="F37" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="G37" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="H37" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="I37" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964973</v>
       </c>
       <c r="J37" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K37" t="n">
-        <v>15.08695199673545</v>
+        <v>15.08695199673554</v>
       </c>
       <c r="L37" t="n">
-        <v>81.35001001408395</v>
+        <v>81.35001001408402</v>
       </c>
       <c r="M37" t="n">
-        <v>161.6042370215895</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N37" t="n">
-        <v>244.4760008573225</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O37" t="n">
         <v>305.8446287478054</v>
       </c>
       <c r="P37" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q37" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R37" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S37" t="n">
-        <v>260.3598971564014</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="T37" t="n">
-        <v>260.3598971564014</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="U37" t="n">
-        <v>175.8055008338497</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="V37" t="n">
-        <v>175.8055008338497</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W37" t="n">
-        <v>91.25110451129788</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X37" t="n">
-        <v>91.25110451129788</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>81.17222046964969</v>
+        <v>81.17222046964973</v>
       </c>
       <c r="C38" t="n">
-        <v>81.17222046964969</v>
+        <v>81.17222046964973</v>
       </c>
       <c r="D38" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964973</v>
       </c>
       <c r="E38" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="F38" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G38" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H38" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I38" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J38" t="n">
-        <v>44.43608870824591</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K38" t="n">
-        <v>44.43608870824591</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="L38" t="n">
-        <v>127.3078525439789</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="M38" t="n">
-        <v>169.091881765839</v>
+        <v>89.56847202447911</v>
       </c>
       <c r="N38" t="n">
-        <v>251.963645601572</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="O38" t="n">
-        <v>251.963645601572</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="P38" t="n">
-        <v>334.835409437305</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q38" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R38" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S38" t="n">
         <v>250.2810131147533</v>
       </c>
       <c r="T38" t="n">
+        <v>250.2810131147533</v>
+      </c>
+      <c r="U38" t="n">
+        <v>250.2810131147533</v>
+      </c>
+      <c r="V38" t="n">
+        <v>250.2810131147533</v>
+      </c>
+      <c r="W38" t="n">
         <v>165.7266167922015</v>
       </c>
-      <c r="U38" t="n">
-        <v>81.17222046964969</v>
-      </c>
-      <c r="V38" t="n">
-        <v>81.17222046964969</v>
-      </c>
-      <c r="W38" t="n">
-        <v>81.17222046964969</v>
-      </c>
       <c r="X38" t="n">
-        <v>81.17222046964969</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y38" t="n">
-        <v>81.17222046964969</v>
+        <v>81.17222046964973</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C39" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D39" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E39" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="F39" t="n">
-        <v>6.696708188746101</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="G39" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H39" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I39" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J39" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K39" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="L39" t="n">
-        <v>89.56847202447909</v>
+        <v>89.56847202447911</v>
       </c>
       <c r="M39" t="n">
-        <v>89.56847202447909</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N39" t="n">
-        <v>169.091881765839</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="O39" t="n">
-        <v>169.091881765839</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="P39" t="n">
-        <v>251.963645601572</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q39" t="n">
-        <v>334.835409437305</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R39" t="n">
-        <v>253.4613449019607</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S39" t="n">
-        <v>253.4613449019607</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="T39" t="n">
-        <v>253.4613449019607</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="U39" t="n">
-        <v>253.4613449019607</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="V39" t="n">
-        <v>168.9069485794089</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="W39" t="n">
-        <v>168.9069485794089</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="X39" t="n">
-        <v>91.25110451129788</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964967</v>
       </c>
       <c r="C40" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964967</v>
       </c>
       <c r="D40" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="E40" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="F40" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G40" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H40" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I40" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J40" t="n">
-        <v>6.696708188746101</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K40" t="n">
         <v>15.08695199673548</v>
       </c>
       <c r="L40" t="n">
-        <v>81.35001001408399</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M40" t="n">
-        <v>161.6042370215896</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N40" t="n">
         <v>244.4760008573226</v>
@@ -7353,31 +7353,31 @@
         <v>334.835409437305</v>
       </c>
       <c r="Q40" t="n">
-        <v>270.1855101186756</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R40" t="n">
-        <v>185.6311137961238</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S40" t="n">
-        <v>101.076717473572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T40" t="n">
-        <v>101.076717473572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U40" t="n">
-        <v>101.076717473572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V40" t="n">
-        <v>101.076717473572</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W40" t="n">
-        <v>16.52232115102021</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X40" t="n">
-        <v>16.52232115102021</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964967</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.17222046964969</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="C41" t="n">
-        <v>81.17222046964969</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="D41" t="n">
-        <v>81.17222046964969</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="E41" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="F41" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="G41" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="H41" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="I41" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="J41" t="n">
         <v>44.43608870824591</v>
       </c>
       <c r="K41" t="n">
-        <v>127.3078525439789</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="L41" t="n">
         <v>127.3078525439789</v>
       </c>
       <c r="M41" t="n">
-        <v>198.7853091397773</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="N41" t="n">
-        <v>198.7853091397773</v>
+        <v>281.6570729755102</v>
       </c>
       <c r="O41" t="n">
-        <v>281.6570729755103</v>
+        <v>281.6570729755102</v>
       </c>
       <c r="P41" t="n">
-        <v>281.6570729755103</v>
+        <v>281.6570729755102</v>
       </c>
       <c r="Q41" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R41" t="n">
-        <v>250.2810131147533</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="S41" t="n">
-        <v>250.2810131147533</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="T41" t="n">
-        <v>250.2810131147533</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="U41" t="n">
-        <v>165.7266167922015</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="V41" t="n">
-        <v>165.7266167922015</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="W41" t="n">
-        <v>81.17222046964969</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="X41" t="n">
-        <v>81.17222046964969</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="Y41" t="n">
-        <v>81.17222046964969</v>
+        <v>165.7266167922014</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6.696708188746101</v>
+        <v>334.835409437305</v>
       </c>
       <c r="C42" t="n">
-        <v>6.696708188746101</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="D42" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="E42" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="F42" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="G42" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="H42" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="I42" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="J42" t="n">
-        <v>35.48064500251785</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="K42" t="n">
-        <v>118.3524088382508</v>
+        <v>89.56847202447908</v>
       </c>
       <c r="L42" t="n">
-        <v>118.3524088382508</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="M42" t="n">
-        <v>169.091881765839</v>
+        <v>251.963645601572</v>
       </c>
       <c r="N42" t="n">
-        <v>251.963645601572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O42" t="n">
-        <v>251.963645601572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P42" t="n">
-        <v>251.963645601572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q42" t="n">
         <v>334.835409437305</v>
@@ -7520,22 +7520,22 @@
         <v>334.835409437305</v>
       </c>
       <c r="T42" t="n">
-        <v>250.2810131147533</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U42" t="n">
-        <v>175.8055008338497</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V42" t="n">
-        <v>175.8055008338497</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W42" t="n">
-        <v>175.8055008338497</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X42" t="n">
-        <v>175.8055008338497</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Y42" t="n">
-        <v>91.25110451129788</v>
+        <v>334.835409437305</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="C43" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="D43" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="E43" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="F43" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="G43" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="H43" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="I43" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="J43" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="K43" t="n">
-        <v>15.08695199673548</v>
+        <v>15.08695199673542</v>
       </c>
       <c r="L43" t="n">
-        <v>81.35001001408399</v>
+        <v>81.35001001408389</v>
       </c>
       <c r="M43" t="n">
-        <v>161.6042370215896</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N43" t="n">
-        <v>244.4760008573226</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O43" t="n">
-        <v>305.8446287478054</v>
+        <v>305.8446287478053</v>
       </c>
       <c r="P43" t="n">
         <v>334.835409437305</v>
@@ -7593,28 +7593,28 @@
         <v>334.835409437305</v>
       </c>
       <c r="R43" t="n">
-        <v>250.2810131147533</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S43" t="n">
-        <v>165.7266167922015</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="T43" t="n">
-        <v>165.7266167922015</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="U43" t="n">
-        <v>165.7266167922015</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="V43" t="n">
-        <v>91.25110451129788</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="W43" t="n">
-        <v>91.25110451129788</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="X43" t="n">
-        <v>91.25110451129788</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="Y43" t="n">
-        <v>91.25110451129788</v>
+        <v>81.17222046964964</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>91.25110451129788</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="C44" t="n">
-        <v>91.25110451129788</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="D44" t="n">
-        <v>91.25110451129788</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="E44" t="n">
-        <v>91.25110451129788</v>
+        <v>175.8055008338496</v>
       </c>
       <c r="F44" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129787</v>
       </c>
       <c r="G44" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="H44" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="I44" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="J44" t="n">
         <v>44.43608870824591</v>
       </c>
       <c r="K44" t="n">
-        <v>127.3078525439789</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="L44" t="n">
-        <v>127.3078525439789</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="M44" t="n">
-        <v>127.3078525439789</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="N44" t="n">
-        <v>169.091881765839</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="O44" t="n">
-        <v>251.963645601572</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="P44" t="n">
-        <v>334.835409437305</v>
+        <v>281.6570729755102</v>
       </c>
       <c r="Q44" t="n">
         <v>334.835409437305</v>
@@ -7681,19 +7681,19 @@
         <v>334.835409437305</v>
       </c>
       <c r="U44" t="n">
+        <v>334.835409437305</v>
+      </c>
+      <c r="V44" t="n">
+        <v>334.835409437305</v>
+      </c>
+      <c r="W44" t="n">
+        <v>334.835409437305</v>
+      </c>
+      <c r="X44" t="n">
+        <v>334.835409437305</v>
+      </c>
+      <c r="Y44" t="n">
         <v>260.3598971564014</v>
-      </c>
-      <c r="V44" t="n">
-        <v>260.3598971564014</v>
-      </c>
-      <c r="W44" t="n">
-        <v>175.8055008338497</v>
-      </c>
-      <c r="X44" t="n">
-        <v>175.8055008338497</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="C45" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="D45" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="E45" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="F45" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="G45" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="H45" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="I45" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="J45" t="n">
-        <v>35.48064500251785</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="K45" t="n">
-        <v>35.48064500251785</v>
+        <v>86.22011793010607</v>
       </c>
       <c r="L45" t="n">
-        <v>118.3524088382508</v>
+        <v>169.091881765839</v>
       </c>
       <c r="M45" t="n">
-        <v>169.091881765839</v>
+        <v>251.963645601572</v>
       </c>
       <c r="N45" t="n">
         <v>251.963645601572</v>
@@ -7751,28 +7751,28 @@
         <v>334.835409437305</v>
       </c>
       <c r="R45" t="n">
-        <v>253.4613449019607</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S45" t="n">
-        <v>168.9069485794089</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T45" t="n">
-        <v>168.9069485794089</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U45" t="n">
-        <v>168.9069485794089</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V45" t="n">
-        <v>168.9069485794089</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="W45" t="n">
-        <v>84.35255225685714</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="X45" t="n">
-        <v>84.35255225685714</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="Y45" t="n">
-        <v>6.696708188746101</v>
+        <v>81.17222046964964</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>250.2810131147533</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="C46" t="n">
-        <v>250.2810131147533</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="D46" t="n">
-        <v>250.2810131147533</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="E46" t="n">
-        <v>250.2810131147533</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="F46" t="n">
-        <v>165.7266167922015</v>
+        <v>175.8055008338496</v>
       </c>
       <c r="G46" t="n">
-        <v>165.7266167922015</v>
+        <v>91.25110451129787</v>
       </c>
       <c r="H46" t="n">
-        <v>82.10102187354958</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="I46" t="n">
-        <v>82.10102187354958</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="J46" t="n">
-        <v>6.696708188746101</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="K46" t="n">
-        <v>15.08695199673551</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L46" t="n">
-        <v>81.35001001408399</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M46" t="n">
-        <v>161.6042370215896</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N46" t="n">
-        <v>244.4760008573226</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O46" t="n">
-        <v>305.8446287478054</v>
+        <v>305.8446287478053</v>
       </c>
       <c r="P46" t="n">
         <v>334.835409437305</v>
@@ -7842,16 +7842,16 @@
         <v>334.835409437305</v>
       </c>
       <c r="V46" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="W46" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="X46" t="n">
-        <v>250.2810131147533</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="Y46" t="n">
-        <v>250.2810131147533</v>
+        <v>250.2810131147532</v>
       </c>
     </row>
   </sheetData>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.01635169013436</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K12" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L12" t="n">
-        <v>70.01985409800085</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M12" t="n">
-        <v>62.15747501601244</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N12" t="n">
-        <v>49.24841164076375</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O12" t="n">
-        <v>67.49691276755156</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P12" t="n">
         <v>73.70057286958928</v>
@@ -8859,7 +8859,7 @@
         <v>97.44478514428849</v>
       </c>
       <c r="N13" t="n">
-        <v>87.19087109886839</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O13" t="n">
         <v>101.0531533451928</v>
@@ -9005,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.01635169013436</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K15" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L15" t="n">
-        <v>70.01985409800085</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M15" t="n">
-        <v>62.15747501601244</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N15" t="n">
-        <v>49.24841164076375</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O15" t="n">
-        <v>67.49691276755156</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P15" t="n">
         <v>73.70057286958928</v>
@@ -9096,7 +9096,7 @@
         <v>97.44478514428849</v>
       </c>
       <c r="N16" t="n">
-        <v>87.19087109886839</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O16" t="n">
         <v>101.0531533451928</v>
@@ -9242,22 +9242,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.01635169013436</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K18" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L18" t="n">
-        <v>70.01985409800085</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M18" t="n">
-        <v>62.15747501601244</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N18" t="n">
-        <v>49.24841164076375</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O18" t="n">
-        <v>67.49691276755156</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P18" t="n">
         <v>73.70057286958928</v>
@@ -9333,7 +9333,7 @@
         <v>97.44478514428849</v>
       </c>
       <c r="N19" t="n">
-        <v>87.19087109886839</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O19" t="n">
         <v>101.0531533451928</v>
@@ -9479,22 +9479,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.01635169013436</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K21" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L21" t="n">
-        <v>70.01985409800085</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M21" t="n">
-        <v>62.15747501601244</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N21" t="n">
-        <v>49.24841164076375</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O21" t="n">
-        <v>67.49691276755156</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P21" t="n">
         <v>73.70057286958928</v>
@@ -9570,7 +9570,7 @@
         <v>97.44478514428849</v>
       </c>
       <c r="N22" t="n">
-        <v>87.19087109886839</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O22" t="n">
         <v>101.0531533451928</v>
@@ -9640,25 +9640,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>217.2475376969873</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L23" t="n">
         <v>142.6704705170102</v>
       </c>
       <c r="M23" t="n">
-        <v>210.4679097145473</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N23" t="n">
         <v>124.1497389218713</v>
       </c>
       <c r="O23" t="n">
-        <v>130.7010388478133</v>
+        <v>214.4098912071396</v>
       </c>
       <c r="P23" t="n">
         <v>230.1086609576568</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>200.8055894074455</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.01635169013436</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K24" t="n">
-        <v>86.87213017667128</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L24" t="n">
-        <v>70.01985409800085</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M24" t="n">
-        <v>145.8663273753387</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N24" t="n">
-        <v>132.95726400009</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O24" t="n">
         <v>147.8235892739758</v>
@@ -9880,7 +9880,7 @@
         <v>145.0480865901202</v>
       </c>
       <c r="L26" t="n">
-        <v>142.6704705170102</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M26" t="n">
         <v>210.4679097145473</v>
@@ -9889,13 +9889,13 @@
         <v>207.8585912811975</v>
       </c>
       <c r="O26" t="n">
-        <v>214.4098912071395</v>
+        <v>157.3122239786873</v>
       </c>
       <c r="P26" t="n">
-        <v>226.7264851047547</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q26" t="n">
-        <v>158.5994992843545</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9956,7 +9956,7 @@
         <v>97.01635169013434</v>
       </c>
       <c r="K27" t="n">
-        <v>86.87213017667128</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L27" t="n">
         <v>153.7287064573271</v>
@@ -9965,7 +9965,7 @@
         <v>142.4841515224366</v>
       </c>
       <c r="N27" t="n">
-        <v>132.95726400009</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O27" t="n">
         <v>151.2057651268778</v>
@@ -10041,7 +10041,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094457</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
         <v>170.8997234581946</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>228.7569389494465</v>
+        <v>187.2541767132112</v>
       </c>
       <c r="L29" t="n">
-        <v>142.6704705170102</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M29" t="n">
-        <v>126.759057355221</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N29" t="n">
         <v>207.8585912811975</v>
       </c>
       <c r="O29" t="n">
-        <v>214.4098912071395</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P29" t="n">
-        <v>188.6058987214216</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q29" t="n">
         <v>158.5994992843545</v>
@@ -10193,7 +10193,7 @@
         <v>97.01635169013434</v>
       </c>
       <c r="K30" t="n">
-        <v>167.1988066830955</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L30" t="n">
         <v>70.01985409800083</v>
@@ -10202,7 +10202,7 @@
         <v>62.15747501601243</v>
       </c>
       <c r="N30" t="n">
-        <v>132.95726400009</v>
+        <v>129.5750881471879</v>
       </c>
       <c r="O30" t="n">
         <v>151.2057651268778</v>
@@ -10211,7 +10211,7 @@
         <v>157.4094252289156</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.69031190148982</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10275,7 +10275,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415545</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
         <v>178.5096609094456</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K32" t="n">
-        <v>217.2475376969873</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L32" t="n">
-        <v>226.3793228763365</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M32" t="n">
-        <v>126.759057355221</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N32" t="n">
-        <v>207.8585912811975</v>
+        <v>204.4764154282954</v>
       </c>
       <c r="O32" t="n">
-        <v>130.7010388478133</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P32" t="n">
-        <v>146.3998085983305</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>138.124123032821</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L33" t="n">
-        <v>70.01985409800083</v>
+        <v>121.2718469541505</v>
       </c>
       <c r="M33" t="n">
         <v>62.15747501601243</v>
       </c>
       <c r="N33" t="n">
-        <v>132.95726400009</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O33" t="n">
-        <v>67.49691276755155</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P33" t="n">
         <v>157.4094252289156</v>
@@ -10509,7 +10509,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446526</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -10597,7 +10597,7 @@
         <v>210.4679097145473</v>
       </c>
       <c r="N35" t="n">
-        <v>207.8585912811975</v>
+        <v>196.3491900287383</v>
       </c>
       <c r="O35" t="n">
         <v>214.4098912071395</v>
@@ -10606,7 +10606,7 @@
         <v>146.3998085983305</v>
       </c>
       <c r="Q35" t="n">
-        <v>200.8055894074456</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10673,10 +10673,10 @@
         <v>70.01985409800083</v>
       </c>
       <c r="M36" t="n">
-        <v>142.4841515224366</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N36" t="n">
-        <v>49.24841164076372</v>
+        <v>129.5750881471879</v>
       </c>
       <c r="O36" t="n">
         <v>151.2057651268778</v>
@@ -10746,7 +10746,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L37" t="n">
         <v>162.4747015415544</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K38" t="n">
         <v>145.0480865901202</v>
       </c>
       <c r="L38" t="n">
-        <v>226.3793228763365</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M38" t="n">
-        <v>168.9651474783121</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N38" t="n">
         <v>207.8585912811975</v>
       </c>
       <c r="O38" t="n">
-        <v>130.7010388478133</v>
+        <v>214.4098912071396</v>
       </c>
       <c r="P38" t="n">
-        <v>230.1086609576568</v>
+        <v>173.0109937292044</v>
       </c>
       <c r="Q38" t="n">
-        <v>158.5994992843545</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10910,19 +10910,19 @@
         <v>153.7287064573271</v>
       </c>
       <c r="M39" t="n">
-        <v>62.15747501601243</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N39" t="n">
-        <v>129.5750881471879</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O39" t="n">
-        <v>67.49691276755155</v>
+        <v>147.8235892739758</v>
       </c>
       <c r="P39" t="n">
-        <v>157.4094252289156</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q39" t="n">
-        <v>183.3991642608161</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10986,7 +10986,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415545</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
         <v>178.5096609094456</v>
@@ -11062,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>228.7569389494465</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L41" t="n">
-        <v>142.6704705170102</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M41" t="n">
-        <v>198.9585084620881</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N41" t="n">
-        <v>124.1497389218713</v>
+        <v>196.3491900287383</v>
       </c>
       <c r="O41" t="n">
-        <v>214.4098912071395</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P41" t="n">
         <v>146.3998085983305</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K42" t="n">
         <v>170.5809825359975</v>
       </c>
       <c r="L42" t="n">
-        <v>70.01985409800083</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M42" t="n">
-        <v>113.4094678721621</v>
+        <v>142.4841515224366</v>
       </c>
       <c r="N42" t="n">
         <v>132.95726400009</v>
@@ -11159,7 +11159,7 @@
         <v>73.70057286958928</v>
       </c>
       <c r="Q42" t="n">
-        <v>183.3991642608161</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11223,7 +11223,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415545</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
         <v>178.5096609094456</v>
@@ -11299,25 +11299,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>228.7569389494465</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L44" t="n">
-        <v>142.6704705170102</v>
+        <v>214.8699216238772</v>
       </c>
       <c r="M44" t="n">
-        <v>126.759057355221</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N44" t="n">
-        <v>166.3558290449623</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O44" t="n">
-        <v>214.4098912071395</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P44" t="n">
         <v>230.1086609576568</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.5994992843545</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K45" t="n">
-        <v>86.87213017667128</v>
+        <v>167.1988066830955</v>
       </c>
       <c r="L45" t="n">
         <v>153.7287064573271</v>
       </c>
       <c r="M45" t="n">
-        <v>113.4094678721621</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N45" t="n">
-        <v>132.95726400009</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O45" t="n">
         <v>151.2057651268778</v>
@@ -11457,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446526</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.5603238899909</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S12" t="n">
         <v>165.8202538982478</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.5603238899909</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S15" t="n">
         <v>165.8202538982478</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.5603238899909</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S18" t="n">
         <v>165.8202538982478</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.5603238899909</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S21" t="n">
         <v>165.8202538982478</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>299.0249893041543</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,10 +24214,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>308.1996129141672</v>
+        <v>298.2215177129355</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G23" t="n">
         <v>414.7128039286263</v>
@@ -24256,7 +24256,7 @@
         <v>112.8117022876204</v>
       </c>
       <c r="S23" t="n">
-        <v>111.8681056243513</v>
+        <v>121.846200825583</v>
       </c>
       <c r="T23" t="n">
         <v>136.8045629298631</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0278748673725</v>
+        <v>53.31902250804623</v>
       </c>
       <c r="H24" t="n">
         <v>109.1870041687965</v>
       </c>
       <c r="I24" t="n">
-        <v>78.52912398154929</v>
+        <v>1.649838354119353</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.5603238899909</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>82.11140153892156</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T24" t="n">
         <v>115.1836163799021</v>
@@ -24344,13 +24344,13 @@
         <v>225.9206161404591</v>
       </c>
       <c r="V24" t="n">
-        <v>149.091734790099</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>132.0422280453829</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.12312782261104</v>
+        <v>170.104623349286</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,25 +24414,25 @@
         <v>165.3949386670144</v>
       </c>
       <c r="S25" t="n">
-        <v>219.4049252012732</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T25" t="n">
         <v>226.8149236834831</v>
       </c>
       <c r="U25" t="n">
-        <v>276.5772384930548</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V25" t="n">
         <v>168.4287909645017</v>
       </c>
       <c r="W25" t="n">
-        <v>202.8141459772647</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>134.8758009927685</v>
       </c>
     </row>
     <row r="26">
@@ -24445,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>291.542134612913</v>
+        <v>281.5640394116813</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>308.1996129141672</v>
       </c>
       <c r="F26" t="n">
         <v>323.1671933823852</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7128039286263</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H26" t="n">
         <v>333.4331447729346</v>
@@ -24499,7 +24499,7 @@
         <v>220.5134152891894</v>
       </c>
       <c r="U26" t="n">
-        <v>167.5896058615895</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>286.0222483191428</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>88.99964662898947</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,10 +24536,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0278748673725</v>
+        <v>53.31902250804623</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1870041687965</v>
+        <v>25.47815180947026</v>
       </c>
       <c r="I27" t="n">
         <v>78.52912398154929</v>
@@ -24572,25 +24572,25 @@
         <v>80.56032388999088</v>
       </c>
       <c r="S27" t="n">
-        <v>82.11140153892156</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T27" t="n">
-        <v>115.1836163799021</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U27" t="n">
         <v>225.9206161404591</v>
       </c>
       <c r="V27" t="n">
-        <v>159.0698299913307</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>122.0641328441512</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>131.9519386192098</v>
       </c>
     </row>
     <row r="28">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>83.53796873930156</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>64.90662065888608</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,13 +24648,13 @@
         <v>64.00340032544321</v>
       </c>
       <c r="R28" t="n">
-        <v>165.3949386670144</v>
+        <v>91.66418150891991</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4049252012732</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T28" t="n">
-        <v>143.1060713241569</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U28" t="n">
         <v>286.3045953257062</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>202.8141459772647</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>142.0008030297109</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>144.8538961940002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>270.9741892613567</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7128039286263</v>
+        <v>340.9820467705317</v>
       </c>
       <c r="H29" t="n">
         <v>333.4331447729346</v>
@@ -24736,7 +24736,7 @@
         <v>220.5134152891894</v>
       </c>
       <c r="U29" t="n">
-        <v>177.5677010628212</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V29" t="n">
         <v>244.0434061108086</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>286.0222483191428</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>88.99964662898947</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>80.76579482797101</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24809,16 +24809,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>82.11140153892156</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T30" t="n">
         <v>198.8924687392284</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206161404591</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V30" t="n">
-        <v>155.9213015219954</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>121.9738434179781</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>83.53796873930156</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>64.90662065888608</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>159.8744254895399</v>
       </c>
       <c r="I31" t="n">
-        <v>147.4925126213155</v>
+        <v>73.76175546322098</v>
       </c>
       <c r="J31" t="n">
         <v>74.65027054795544</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R31" t="n">
-        <v>81.68608630768817</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S31" t="n">
-        <v>135.696072841947</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T31" t="n">
         <v>226.8149236834831</v>
@@ -24897,16 +24897,16 @@
         <v>286.3045953257062</v>
       </c>
       <c r="V31" t="n">
-        <v>168.4287909645017</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>215.9822985563858</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>134.8758009927685</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>291.5421346129129</v>
       </c>
       <c r="D32" t="n">
-        <v>270.9741892613567</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7128039286263</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H32" t="n">
         <v>333.4331447729346</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>39.08094512952584</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S32" t="n">
         <v>195.5769579836776</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>286.0222483191428</v>
       </c>
       <c r="Y32" t="n">
-        <v>302.5290862967273</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>88.99964662898947</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>63.73621320531248</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>71.33845523528929</v>
       </c>
       <c r="G33" t="n">
         <v>137.0278748673725</v>
@@ -25046,16 +25046,16 @@
         <v>80.56032388999088</v>
       </c>
       <c r="S33" t="n">
-        <v>82.11140153892156</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T33" t="n">
-        <v>115.1836163799021</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206161404591</v>
       </c>
       <c r="V33" t="n">
-        <v>149.091734790099</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>131.9519386192098</v>
+        <v>121.9738434179781</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>96.12312782261102</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R34" t="n">
         <v>165.3949386670144</v>
@@ -25131,19 +25131,19 @@
         <v>226.8149236834831</v>
       </c>
       <c r="U34" t="n">
-        <v>202.5957429663799</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>202.8141459772647</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>215.9822985563858</v>
+        <v>142.0008030297109</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>144.8538961940002</v>
       </c>
     </row>
     <row r="35">
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>333.1452885836169</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.7128039286263</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>29.10284992829416</v>
+        <v>29.10284992829415</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5769579836776</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T35" t="n">
         <v>220.5134152891894</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2984582209158</v>
+        <v>177.5677010628212</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>265.5321163580867</v>
       </c>
       <c r="X35" t="n">
-        <v>286.0222483191428</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25241,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>73.93622809607467</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25286,19 +25286,19 @@
         <v>165.8202538982478</v>
       </c>
       <c r="T36" t="n">
-        <v>122.0131831117985</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U36" t="n">
-        <v>142.2117637811329</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V36" t="n">
-        <v>149.091734790099</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>128.8936995760475</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25332,10 +25332,10 @@
         <v>159.8744254895399</v>
       </c>
       <c r="I37" t="n">
-        <v>147.4925126213155</v>
+        <v>63.78366026198924</v>
       </c>
       <c r="J37" t="n">
-        <v>74.65027054795544</v>
+        <v>0.9195133898608532</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>64.00340032544321</v>
       </c>
       <c r="R37" t="n">
-        <v>165.3949386670144</v>
+        <v>81.68608630768816</v>
       </c>
       <c r="S37" t="n">
-        <v>145.6741680431787</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T37" t="n">
         <v>226.8149236834831</v>
       </c>
       <c r="U37" t="n">
-        <v>202.5957429663799</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>202.8141459772647</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>134.8758009927685</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,10 +25396,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>280.9522844625884</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>308.1996129141672</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8117022876204</v>
+        <v>29.10284992829415</v>
       </c>
       <c r="S38" t="n">
-        <v>111.8681056243513</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T38" t="n">
-        <v>136.8045629298631</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U38" t="n">
-        <v>167.5896058615895</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>265.5321163580867</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>302.5290862967273</v>
       </c>
     </row>
     <row r="39">
@@ -25478,13 +25478,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>73.93622809607467</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0278748673725</v>
+        <v>53.31902250804623</v>
       </c>
       <c r="H39" t="n">
         <v>109.1870041687965</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S39" t="n">
         <v>165.8202538982478</v>
@@ -25526,16 +25526,16 @@
         <v>198.8924687392284</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206161404591</v>
+        <v>152.1898589823646</v>
       </c>
       <c r="V39" t="n">
-        <v>149.091734790099</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>128.8936995760475</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>121.9738434179781</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>74.88471586011782</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R40" t="n">
-        <v>81.68608630768817</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S40" t="n">
-        <v>135.696072841947</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T40" t="n">
         <v>226.8149236834831</v>
@@ -25608,7 +25608,7 @@
         <v>286.3045953257062</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645017</v>
       </c>
       <c r="W40" t="n">
         <v>202.8141459772647</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.8572965194434</v>
+        <v>134.8758009927685</v>
       </c>
     </row>
     <row r="41">
@@ -25633,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>270.9741892613567</v>
       </c>
       <c r="E41" t="n">
-        <v>308.1996129141672</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>333.1452885836169</v>
       </c>
       <c r="G41" t="n">
         <v>414.7128039286263</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>29.10284992829416</v>
+        <v>29.10284992829418</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5769579836776</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T41" t="n">
         <v>220.5134152891894</v>
       </c>
       <c r="U41" t="n">
-        <v>167.5896058615895</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>265.5321163580867</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>82.82433129054108</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>88.9996466289895</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>63.73621320531251</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25724,10 +25724,10 @@
         <v>137.0278748673725</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1870041687965</v>
+        <v>25.47815180947029</v>
       </c>
       <c r="I42" t="n">
-        <v>78.52912398154929</v>
+        <v>4.798366823454785</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,10 +25760,10 @@
         <v>165.8202538982478</v>
       </c>
       <c r="T42" t="n">
-        <v>115.1836163799021</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U42" t="n">
-        <v>152.1898589823646</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>121.9738434179781</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.12312782261104</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25806,7 +25806,7 @@
         <v>159.8744254895399</v>
       </c>
       <c r="I43" t="n">
-        <v>147.4925126213155</v>
+        <v>73.76175546322101</v>
       </c>
       <c r="J43" t="n">
         <v>74.65027054795544</v>
@@ -25833,19 +25833,19 @@
         <v>64.00340032544321</v>
       </c>
       <c r="R43" t="n">
-        <v>81.68608630768817</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S43" t="n">
         <v>135.696072841947</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8149236834831</v>
+        <v>143.1060713241569</v>
       </c>
       <c r="U43" t="n">
         <v>286.3045953257062</v>
       </c>
       <c r="V43" t="n">
-        <v>178.4068861657335</v>
+        <v>168.4287909645018</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>299.0249893041543</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>298.2215177129356</v>
       </c>
       <c r="F44" t="n">
         <v>323.1671933823852</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7128039286263</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H44" t="n">
         <v>333.4331447729346</v>
@@ -25921,19 +25921,19 @@
         <v>220.5134152891894</v>
       </c>
       <c r="U44" t="n">
-        <v>177.5677010628212</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>265.5321163580867</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>312.5071814979591</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>98.97774183022123</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S45" t="n">
-        <v>82.11140153892156</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T45" t="n">
         <v>198.8924687392284</v>
@@ -26003,16 +26003,16 @@
         <v>225.9206161404591</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W45" t="n">
-        <v>167.9861308015933</v>
+        <v>167.9861308015934</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y45" t="n">
-        <v>128.8034101498744</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26034,19 +26034,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>61.71219566360499</v>
+        <v>71.69029086483673</v>
       </c>
       <c r="G46" t="n">
-        <v>167.72635546074</v>
+        <v>84.01750310141375</v>
       </c>
       <c r="H46" t="n">
-        <v>77.08508652007457</v>
+        <v>76.16557313021369</v>
       </c>
       <c r="I46" t="n">
         <v>147.4925126213155</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>286.3045953257062</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645018</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>142.0008030297109</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>353873.0438396477</v>
+        <v>353873.043839648</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>353873.0438396477</v>
+        <v>353873.043839648</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>353873.0438396478</v>
+        <v>353873.0438396479</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>353873.0438396477</v>
+        <v>353873.0438396478</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>353873.043839648</v>
+        <v>353873.0438396477</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>353873.0438396479</v>
+        <v>353873.0438396477</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>614457.2540377788</v>
+      </c>
+      <c r="C2" t="n">
+        <v>614457.2540377787</v>
+      </c>
+      <c r="D2" t="n">
         <v>614457.2540377786</v>
-      </c>
-      <c r="C2" t="n">
-        <v>614457.2540377786</v>
-      </c>
-      <c r="D2" t="n">
-        <v>614457.2540377788</v>
       </c>
       <c r="E2" t="n">
         <v>170517.1525778614</v>
@@ -26349,7 +26349,7 @@
         <v>206089.0284867115</v>
       </c>
       <c r="N2" t="n">
-        <v>206089.0284867116</v>
+        <v>206089.0284867115</v>
       </c>
       <c r="O2" t="n">
         <v>206089.0284867115</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22259.9417282444</v>
+        <v>22259.94172824437</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>58520.99938012005</v>
       </c>
       <c r="I4" t="n">
+        <v>79160.26078218724</v>
+      </c>
+      <c r="J4" t="n">
+        <v>79160.26078218722</v>
+      </c>
+      <c r="K4" t="n">
         <v>79160.26078218725</v>
       </c>
-      <c r="J4" t="n">
-        <v>79160.26078218724</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>79160.26078218722</v>
-      </c>
-      <c r="L4" t="n">
-        <v>79160.26078218724</v>
       </c>
       <c r="M4" t="n">
         <v>79160.26078218724</v>
       </c>
       <c r="N4" t="n">
-        <v>79160.26078218725</v>
+        <v>79160.26078218724</v>
       </c>
       <c r="O4" t="n">
-        <v>79160.26078218724</v>
+        <v>79160.26078218722</v>
       </c>
       <c r="P4" t="n">
-        <v>79160.26078218725</v>
+        <v>79160.26078218722</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3199.062356240236</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="F5" t="n">
-        <v>3199.062356240236</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="G5" t="n">
-        <v>3199.062356240236</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="H5" t="n">
-        <v>3199.062356240236</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="I5" t="n">
-        <v>8288.560579687271</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="J5" t="n">
         <v>8288.560579687273</v>
@@ -26508,10 +26508,10 @@
         <v>8288.560579687273</v>
       </c>
       <c r="O5" t="n">
-        <v>8288.560579687273</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="P5" t="n">
-        <v>8288.560579687273</v>
+        <v>8288.560579687271</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144555.7743185304</v>
+        <v>144511.6385398495</v>
       </c>
       <c r="C6" t="n">
-        <v>144555.7743185304</v>
+        <v>144511.6385398494</v>
       </c>
       <c r="D6" t="n">
-        <v>144555.7743185307</v>
+        <v>144511.6385398493</v>
       </c>
       <c r="E6" t="n">
-        <v>-9099.069442465541</v>
+        <v>-23941.20860314394</v>
       </c>
       <c r="F6" t="n">
-        <v>108797.0908415012</v>
+        <v>93954.95168082279</v>
       </c>
       <c r="G6" t="n">
-        <v>108797.0908415012</v>
+        <v>93954.95168082279</v>
       </c>
       <c r="H6" t="n">
-        <v>108797.0908415012</v>
+        <v>93954.95168082279</v>
       </c>
       <c r="I6" t="n">
-        <v>96380.26539659259</v>
+        <v>82723.85543287596</v>
       </c>
       <c r="J6" t="n">
-        <v>118640.207124837</v>
+        <v>104983.7971611203</v>
       </c>
       <c r="K6" t="n">
-        <v>118640.207124837</v>
+        <v>104983.7971611203</v>
       </c>
       <c r="L6" t="n">
-        <v>118640.207124837</v>
+        <v>104983.7971611203</v>
       </c>
       <c r="M6" t="n">
-        <v>118640.207124837</v>
+        <v>104983.7971611203</v>
       </c>
       <c r="N6" t="n">
-        <v>118640.207124837</v>
+        <v>104983.7971611203</v>
       </c>
       <c r="O6" t="n">
-        <v>118640.207124837</v>
+        <v>104983.7971611203</v>
       </c>
       <c r="P6" t="n">
-        <v>118640.207124837</v>
+        <v>104983.7971611203</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="J4" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="K4" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="L4" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="M4" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="N4" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O4" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="P4" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932624</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H11" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I11" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J11" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K11" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L11" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M11" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N11" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O11" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P11" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R11" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S11" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T11" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,40 +31834,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H12" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I12" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J12" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K12" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L12" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M12" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N12" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O12" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P12" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R12" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S12" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T12" t="n">
         <v>1.272259955593204</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H13" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I13" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J13" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K13" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L13" t="n">
         <v>39.3423565753894</v>
@@ -31934,22 +31934,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O13" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P13" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R13" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S13" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T13" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U13" t="n">
         <v>0.01443403078466043</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H14" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I14" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J14" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K14" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L14" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M14" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N14" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O14" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P14" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R14" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S14" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T14" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,40 +32071,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H15" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I15" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J15" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K15" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L15" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M15" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N15" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O15" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P15" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R15" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S15" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T15" t="n">
         <v>1.272259955593204</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H16" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I16" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J16" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K16" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L16" t="n">
         <v>39.3423565753894</v>
@@ -32171,22 +32171,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O16" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P16" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R16" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S16" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T16" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U16" t="n">
         <v>0.01443403078466043</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H17" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I17" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J17" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K17" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L17" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M17" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N17" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O17" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P17" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R17" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S17" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T17" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,40 +32308,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H18" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I18" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J18" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K18" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L18" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M18" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N18" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O18" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P18" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R18" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S18" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T18" t="n">
         <v>1.272259955593204</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H19" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I19" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J19" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K19" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L19" t="n">
         <v>39.3423565753894</v>
@@ -32408,22 +32408,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O19" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P19" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R19" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S19" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T19" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U19" t="n">
         <v>0.01443403078466043</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H20" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I20" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J20" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K20" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L20" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M20" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N20" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O20" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P20" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R20" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S20" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T20" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,40 +32545,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H21" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I21" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J21" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K21" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L21" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M21" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N21" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O21" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P21" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R21" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S21" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T21" t="n">
         <v>1.272259955593204</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H22" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I22" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J22" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K22" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L22" t="n">
         <v>39.3423565753894</v>
@@ -32645,22 +32645,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O22" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P22" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R22" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S22" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T22" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U22" t="n">
         <v>0.01443403078466043</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5899335865087333</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H23" t="n">
-        <v>6.041657342832566</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I23" t="n">
-        <v>22.74341459387796</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J23" t="n">
-        <v>50.06987573794564</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K23" t="n">
-        <v>75.04176445486034</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L23" t="n">
-        <v>93.09594445297701</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M23" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N23" t="n">
-        <v>105.2633246747196</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O23" t="n">
-        <v>99.39717257387341</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P23" t="n">
-        <v>84.83318715693905</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.70619059009501</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R23" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S23" t="n">
-        <v>13.44311160256777</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T23" t="n">
-        <v>2.582434274941981</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04719468692069865</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,40 +32782,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H24" t="n">
-        <v>3.048440067699931</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I24" t="n">
-        <v>10.86750886986578</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J24" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K24" t="n">
-        <v>50.96930879768771</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L24" t="n">
-        <v>68.53452568187333</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M24" t="n">
-        <v>79.97655890600588</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N24" t="n">
-        <v>82.09330044256956</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O24" t="n">
-        <v>75.09933167689287</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P24" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.29146218453169</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R24" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S24" t="n">
-        <v>5.862917205590008</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T24" t="n">
         <v>1.272259955593204</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2646238977187741</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H25" t="n">
-        <v>2.352747017899648</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I25" t="n">
-        <v>7.957962305942774</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J25" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K25" t="n">
-        <v>30.74448557132666</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L25" t="n">
         <v>39.3423565753894</v>
@@ -32882,22 +32882,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O25" t="n">
-        <v>37.40338510665002</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P25" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.15864292625117</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R25" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S25" t="n">
-        <v>4.611672835698999</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T25" t="n">
-        <v>1.130665744798398</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U25" t="n">
         <v>0.01443403078466043</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.12058638333313</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K23" t="n">
-        <v>72.19945110686713</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="P23" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.71549137555021</v>
+        <v>42.20609012309104</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="M24" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>80.32667650642419</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.474993745443811</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L25" t="n">
         <v>66.93238183570554</v>
@@ -36527,10 +36527,10 @@
         <v>81.06487576515715</v>
       </c>
       <c r="N25" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O25" t="n">
-        <v>61.98851302068972</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P25" t="n">
         <v>29.28361685808049</v>
@@ -36600,22 +36600,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="M26" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="N26" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O26" t="n">
-        <v>83.70885235932626</v>
+        <v>26.61118513087395</v>
       </c>
       <c r="P26" t="n">
-        <v>80.32667650642419</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="L27" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="M27" t="n">
         <v>80.32667650642419</v>
       </c>
       <c r="N27" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36761,10 +36761,10 @@
         <v>66.93238183570554</v>
       </c>
       <c r="M28" t="n">
-        <v>81.06487576515718</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N28" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O28" t="n">
         <v>61.9885130206897</v>
@@ -36834,22 +36834,22 @@
         <v>38.12058638333314</v>
       </c>
       <c r="K29" t="n">
-        <v>83.70885235932626</v>
+        <v>42.20609012309104</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="N29" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O29" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>42.20609012309109</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.32667650642419</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>83.70885235932626</v>
+        <v>80.32667650642418</v>
       </c>
       <c r="O30" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="P30" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,13 +36995,13 @@
         <v>8.474993745443818</v>
       </c>
       <c r="L31" t="n">
-        <v>66.93238183570557</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M31" t="n">
         <v>81.06487576515715</v>
       </c>
       <c r="N31" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O31" t="n">
         <v>61.9885130206897</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>38.12058638333314</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>72.19945110686707</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="N32" t="n">
-        <v>83.70885235932626</v>
+        <v>80.32667650642418</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.71549137555022</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>29.07468365027449</v>
       </c>
       <c r="K33" t="n">
-        <v>51.25199285614971</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>51.25199285614969</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="P33" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Q33" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.474993745443845</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L34" t="n">
         <v>66.93238183570554</v>
@@ -37238,7 +37238,7 @@
         <v>81.06487576515715</v>
       </c>
       <c r="N34" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O34" t="n">
         <v>61.9885130206897</v>
@@ -37314,19 +37314,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="N35" t="n">
-        <v>83.70885235932626</v>
+        <v>72.19945110686707</v>
       </c>
       <c r="O35" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>42.20609012309109</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>80.32667650642419</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>80.32667650642418</v>
       </c>
       <c r="O36" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="P36" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Q36" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.474993745443818</v>
+        <v>8.474993745443873</v>
       </c>
       <c r="L37" t="n">
         <v>66.93238183570554</v>
@@ -37475,7 +37475,7 @@
         <v>81.06487576515715</v>
       </c>
       <c r="N37" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O37" t="n">
         <v>61.9885130206897</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.12058638333314</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>42.20609012309107</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="N38" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="P38" t="n">
-        <v>83.70885235932626</v>
+        <v>26.61118513087395</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="N39" t="n">
+        <v>83.70885235932627</v>
+      </c>
+      <c r="O39" t="n">
         <v>80.32667650642419</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,13 +37706,13 @@
         <v>8.474993745443818</v>
       </c>
       <c r="L40" t="n">
-        <v>66.93238183570557</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M40" t="n">
         <v>81.06487576515715</v>
       </c>
       <c r="N40" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O40" t="n">
         <v>61.9885130206897</v>
@@ -37782,19 +37782,19 @@
         <v>38.12058638333314</v>
       </c>
       <c r="K41" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="M41" t="n">
-        <v>72.19945110686707</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>72.19945110686702</v>
       </c>
       <c r="O41" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.07468365027449</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="M42" t="n">
-        <v>51.25199285614971</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="N42" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,13 +37943,13 @@
         <v>8.474993745443818</v>
       </c>
       <c r="L43" t="n">
-        <v>66.93238183570557</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M43" t="n">
         <v>81.06487576515715</v>
       </c>
       <c r="N43" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="O43" t="n">
         <v>61.9885130206897</v>
@@ -38019,25 +38019,25 @@
         <v>38.12058638333314</v>
       </c>
       <c r="K44" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>72.19945110686704</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="N44" t="n">
-        <v>42.20609012309107</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.07468365027449</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.32667650642421</v>
       </c>
       <c r="L45" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="M45" t="n">
-        <v>51.25199285614971</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="N45" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>8.474993745443845</v>
+        <v>8.474993745443816</v>
       </c>
       <c r="L46" t="n">
         <v>66.93238183570554</v>
@@ -38186,7 +38186,7 @@
         <v>81.06487576515715</v>
       </c>
       <c r="N46" t="n">
-        <v>83.70885235932626</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="O46" t="n">
         <v>61.9885130206897</v>
